--- a/biology/Biochimie/ATP_synthase/ATP_synthase.xlsx
+++ b/biology/Biochimie/ATP_synthase/ATP_synthase.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">L'ATP synthase  (EC 7.1.2.2) est un complexe protéique enzymatique qui se trouve dans les crêtes mitochondriales, la membrane interne des thylakoïdes, et la membrane plasmique des bactéries et des archées. Le rôle de cette protéine membranaire est de synthétiser l'adénosine triphosphate (ATP) à partir du gradient électrochimique de protons entretenu par la chaîne respiratoire et d'adénosine diphosphate (ADP), ainsi que de phosphate inorganique (Pi), selon la réaction suivante :
 ADP + Pi → ATP.
@@ -513,13 +525,15 @@
           <t>Structure</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L’ATP synthase est constituée de deux parties principales: l’une enchâssée dans la membrane interne apolaire[1], notée FO (pour « Fraction oligomycine[2] »), l’autre globulaire et au contact de la matrice mitochondriale ou du stroma (intérieur du chloroplaste), notée F1 (pour « Fraction 1 »).
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L’ATP synthase est constituée de deux parties principales: l’une enchâssée dans la membrane interne apolaire, notée FO (pour « Fraction oligomycine »), l’autre globulaire et au contact de la matrice mitochondriale ou du stroma (intérieur du chloroplaste), notée F1 (pour « Fraction 1 »).
 FO est mobile dans le plan de la membrane, et peut tourner autour d’un axe constitué par certaines des sous-unités de F1, d’où sa qualification de « rotor ». FO comprend un nombre variable de sous-unités membranaires c (entre 10 et 15) portant des acides aminés aspartate (Asp) ayant la particularité d'être chargés négativement, ainsi que les sous-unités γ et ε. Le fait que les sous-unités c soient chargées ainsi est favorable à la rotation de FO.
 Par opposition, F1 est qualifiée de « stator », et comprend trois sous-unités β catalytiques responsables de la synthèse d'ATP, trois sous unités α structurales, ainsi que les sous-unités ε, γ et δ.
 Lors de l'entrée d'un proton il y a rotation de sens contre l'aiguille d'une montre entraînant par suite la rotation de la tige centrale.
-Les ATP synthase mitochondriales peuvent s'associer en dimères voire en oligomères, provoquant une légère déformation de la membrane interne. Ce phénomène serait responsable de la formation et/ou du maintien des crêtes [3].
+Les ATP synthase mitochondriales peuvent s'associer en dimères voire en oligomères, provoquant une légère déformation de la membrane interne. Ce phénomène serait responsable de la formation et/ou du maintien des crêtes .
 </t>
         </is>
       </c>
@@ -548,7 +562,9 @@
           <t>Synthèse</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">La synthèse de l’ATP repose sur une conversion énergétique, via des changements de conformation des sous-unités.
 Un gradient de protons de part et d’autre de la membrane dans laquelle sont insérées les ATP-synthases est nécessaire à leur fonctionnement, ce qui implique que la synthèse d’ATP ne peut se faire indépendamment d’une membrane. Au sein de la membrane interne mitochondriale, c’est la chaîne respiratoire qui pourvoit au gradient de pH en injectant des protons dans l'espace intermembranaire lors du transfert des électrons d’un complexe à l’autre. Au niveau de la membrane des thylakoïdes, c’est la chaîne photosynthétique qui injecte des protons dans le lumen.
@@ -586,7 +602,9 @@
           <t>Devenir de l’ATP</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Au sein du chloroplaste, l’ATP libérée dans le stroma y reste jusqu’à son utilisation par les enzymes plastidiennes. Le chloroplaste ne pourvoit pas aux besoins de la cellule en matière d’ATP. Cependant, l’ATP produit dans la matrice mitochondriale peut gagner le hyaloplasme (autrement dit : sortir de la mitochondrie), et servir au métabolisme cellulaire. Par exemple, son hydrolyse peut servir à l’établissement de gradients (voir les pompes ATP-asiques à ions), au déplacement des nanomoteurs ATP-dépendants (comme la kinésine, la dynéine, la myosine…), ou plus simplement être couplée avec des réactions endergoniques très variées. L’ATP est la seule forme d’énergie chimique convertible en énergies osmotique et mécanique, ce qui ajoute encore à son importance.
 </t>
